--- a/дисертация/изыскания/логарифм/iteration 2.xlsx
+++ b/дисертация/изыскания/логарифм/iteration 2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>w=2; l=1250</t>
   </si>
@@ -48,6 +48,30 @@
   </si>
   <si>
     <t>формула</t>
+  </si>
+  <si>
+    <t xml:space="preserve">примем W=3, тогда </t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>тетта</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>логарифм</t>
+  </si>
+  <si>
+    <t>степень</t>
+  </si>
+  <si>
+    <t>l1</t>
+  </si>
+  <si>
+    <t>старая</t>
   </si>
 </sst>
 </file>
@@ -8096,6 +8120,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="452472512"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -8456,6 +8481,581 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$E$20:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>83.296117803068398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.621284275167866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.065492311505082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.774054283205778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.252393849204076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.438304112281273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.680852685040698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.069342367562093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$D$20:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>171950.85678568218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153470.41417192059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108304.63360237361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82082.636624077393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51473.026054222784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36828.87092058704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21781.02979416318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13340.227298599584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7235-4699-BAC2-24A76B64D665}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$E$20:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>83.296117803068398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.621284275167866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.065492311505082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.774054283205778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.252393849204076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.438304112281273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.680852685040698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.069342367562093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$K$20:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25444.098777198626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26187.542718507219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27111.604096789622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28104.664048607799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29097.724000425969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29909.113060691812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31189.390009433399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32182.449961251576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7235-4699-BAC2-24A76B64D665}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$E$20:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>83.296117803068398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.621284275167866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.065492311505082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.774054283205778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.252393849204076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.438304112281273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.680852685040698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.069342367562093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$H$20:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>256.48258862344738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>263.10264574754797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>271.64283594510766</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>281.21113415534796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>291.19094434253816</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>299.65634222507623</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>313.59652963309838</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>324.91329450511751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7235-4699-BAC2-24A76B64D665}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="377966216"/>
+        <c:axId val="377963264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="377966216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377963264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="377963264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377966216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12879,6 +13479,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="451190592"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -13087,6 +13688,46 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15511,6 +16152,522 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20536,6 +21693,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -30178,13 +31365,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -30222,15 +31414,15 @@
         <v>3.32</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B13" si="0">3614*LN(A4)-9705</f>
+        <f t="shared" ref="B4:B7" si="0">3614*LN(A4)-9705</f>
         <v>-5368.3272744967735</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C9" si="1">3957*LN(A4)+23424</f>
+        <f t="shared" ref="C4:C7" si="1">3957*LN(A4)+23424</f>
         <v>28172.260646047667</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D9" si="2">(B4*LN(2)+C4)/0.921</f>
+        <f t="shared" ref="D4:D7" si="2">(B4*LN(2)+C4)/0.921</f>
         <v>26548.555625849265</v>
       </c>
     </row>
@@ -30309,6 +31501,446 @@
     <row r="13" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>9.2100000000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B20">
+        <v>24.803493449800001</v>
+      </c>
+      <c r="C20">
+        <f>$E$33/(A20*A20)</f>
+        <v>279.49795677583262</v>
+      </c>
+      <c r="D20">
+        <f>B20*B20*C20</f>
+        <v>171950.85678568218</v>
+      </c>
+      <c r="E20">
+        <f>POWER(C20,0.25)*64/PI()</f>
+        <v>83.296117803068398</v>
+      </c>
+      <c r="F20">
+        <f>2290.4*POWER(A20,0.1629)/$G$18</f>
+        <v>252.57744935617538</v>
+      </c>
+      <c r="G20">
+        <f>0.41882*POWER(A20,0.025*LN($G$18)-0.7715)</f>
+        <v>0.39119252701278051</v>
+      </c>
+      <c r="H20">
+        <f>F20*POWER(1.04,G20)</f>
+        <v>256.48258862344738</v>
+      </c>
+      <c r="I20">
+        <f>3614*LN(A20)-9705</f>
+        <v>-9360.5490101871692</v>
+      </c>
+      <c r="J20">
+        <f>3957*LN(A20)+23424</f>
+        <v>23801.142381485715</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:K27" si="3">(I20*LN(1.04)+J20)/0.921</f>
+        <v>25444.098777198626</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:L26" si="4">POWER((36511/$G$18)*POWER(1.04,0.1867*POWER(A20,-0.72)),2)/C20</f>
+        <v>57001.723165447976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.3</v>
+      </c>
+      <c r="B21">
+        <v>27.6932343609</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C27" si="5">$E$33/(A21*A21)</f>
+        <v>200.11392171524113</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D27" si="6">B21*B21*C21</f>
+        <v>153470.41417192059</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:E27" si="7">POWER(C21,0.25)*64/PI()</f>
+        <v>76.621284275167866</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F27" si="8">2290.4*POWER(A21,0.1629)/$G$18</f>
+        <v>259.54524506814272</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G27" si="9">0.41882*POWER(A21,0.025*LN($G$18)-0.7715)</f>
+        <v>0.34709215503176338</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H27" si="10">F21*POWER(1.04,G21)</f>
+        <v>263.10264574754797</v>
+      </c>
+      <c r="I21">
+        <f>3614*LN(A21)-9705</f>
+        <v>-8756.8155482144866</v>
+      </c>
+      <c r="J21">
+        <f>3957*LN(A21)+23424</f>
+        <v>24462.175394497863</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>26187.542718507219</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>79490.702539721373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.6</v>
+      </c>
+      <c r="B22">
+        <v>28.632646899000001</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="5"/>
+        <v>132.10645613232714</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="6"/>
+        <v>108304.63360237361</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="7"/>
+        <v>69.065492311505082</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="8"/>
+        <v>268.47438115953975</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="9"/>
+        <v>0.29914309591872984</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="10"/>
+        <v>271.64283594510766</v>
+      </c>
+      <c r="I22">
+        <f>3614*LN(A22)-9705</f>
+        <v>-8006.4068839059109</v>
+      </c>
+      <c r="J22">
+        <f>3957*LN(A22)+23424</f>
+        <v>25283.804360925376</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>27111.604096789622</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>120209.39927150078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>31.1582918513</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="5"/>
+        <v>84.548131924689386</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>82082.636624077393</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>61.774054283205778</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="8"/>
+        <v>278.41298787721269</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="9"/>
+        <v>0.2549717806174705</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="10"/>
+        <v>281.21113415534796</v>
+      </c>
+      <c r="I23">
+        <f>3614*LN(A23)-9705</f>
+        <v>-7199.9660894563576</v>
+      </c>
+      <c r="J23">
+        <f>3957*LN(A23)+23424</f>
+        <v>26166.783393475704</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>28104.664048607799</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>187536.35472610092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2.5</v>
+      </c>
+      <c r="B24">
+        <v>30.8423779785</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="5"/>
+        <v>54.110804431801206</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="6"/>
+        <v>51473.026054222784</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="7"/>
+        <v>55.252393849204076</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="8"/>
+        <v>288.71951015935019</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="9"/>
+        <v>0.21732277895828608</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="10"/>
+        <v>291.19094434253816</v>
+      </c>
+      <c r="I24">
+        <f>3614*LN(A24)-9705</f>
+        <v>-6393.5252950068034</v>
+      </c>
+      <c r="J24">
+        <f>3957*LN(A24)+23424</f>
+        <v>27049.762426026031</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>29097.724000425969</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>292639.13086596021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>31.306423306399999</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="5"/>
+        <v>37.576947522084168</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="6"/>
+        <v>36828.87092058704</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="7"/>
+        <v>50.438304112281273</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="8"/>
+        <v>297.4231419853254</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="9"/>
+        <v>0.19072694454893568</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="10"/>
+        <v>299.65634222507623</v>
+      </c>
+      <c r="I25">
+        <f>3614*LN(A25)-9705</f>
+        <v>-5734.6151887534506</v>
+      </c>
+      <c r="J25">
+        <f>3957*LN(A25)+23424</f>
+        <v>27771.20882625971</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>29909.113060691812</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>421008.02641925967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>32.100898765799997</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="5"/>
+        <v>21.137032981172347</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="6"/>
+        <v>21781.02979416318</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="7"/>
+        <v>43.680852685040698</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
+        <v>311.69316392349964</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="9"/>
+        <v>0.15522326754033591</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="10"/>
+        <v>313.59652963309838</v>
+      </c>
+      <c r="I26">
+        <f>3614*LN(A26)-9705</f>
+        <v>-4694.9321789127152</v>
+      </c>
+      <c r="J26">
+        <f>3957*LN(A26)+23424</f>
+        <v>28909.566786951407</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>31189.390009433399</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>747529.52463940566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>31.402889801899999</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="5"/>
+        <v>13.527701107950302</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="6"/>
+        <v>13340.227298599584</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="7"/>
+        <v>39.069342367562093</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="8"/>
+        <v>323.23167929112418</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="9"/>
+        <v>0.13230307989048076</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="10"/>
+        <v>324.91329450511751</v>
+      </c>
+      <c r="I27">
+        <f>3614*LN(A27)-9705</f>
+        <v>-3888.4913844631619</v>
+      </c>
+      <c r="J27">
+        <f>3957*LN(A27)+23424</f>
+        <v>29792.545819501735</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>32182.449961251576</v>
+      </c>
+      <c r="L27">
+        <f>POWER((36511/$G$18)*POWER(1.04,0.1867*POWER(A27,-0.72)),2)/C27</f>
+        <v>1167079.525553361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>POWER(114, 4)</f>
+        <v>168896016</v>
+      </c>
+      <c r="B33">
+        <f>POWER(100, 4)</f>
+        <v>100000000</v>
+      </c>
+      <c r="C33">
+        <f>A33-B33</f>
+        <v>68896016</v>
+      </c>
+      <c r="D33">
+        <f>PI()*C33</f>
+        <v>216443217.72720483</v>
+      </c>
+      <c r="E33">
+        <f>D33/640000</f>
+        <v>338.19252769875754</v>
       </c>
     </row>
   </sheetData>
@@ -30345,11 +31977,11 @@
         <v>0.4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B25" si="0">LN(A2)</f>
+        <f t="shared" ref="B2:B23" si="0">LN(A2)</f>
         <v>-0.916290731874155</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C25" si="1">-30 * B2 + 90</f>
+        <f t="shared" ref="C2:C23" si="1">-30 * B2 + 90</f>
         <v>117.48872195622465</v>
       </c>
     </row>

--- a/дисертация/изыскания/логарифм/iteration 2.xlsx
+++ b/дисертация/изыскания/логарифм/iteration 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="первичное сравнение" sheetId="1" r:id="rId1"/>
@@ -2958,7 +2958,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3017,7 +3017,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -29993,16 +29993,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30775,8 +30775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C412"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35680,7 +35680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -43841,8 +43841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S14" sqref="S14:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45109,7 +45109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
@@ -45891,7 +45891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
@@ -48243,8 +48243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48829,11 +48829,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="9.28515625" customWidth="1"/>
+    <col min="17" max="19" width="3.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -48926,7 +48930,7 @@
         <v>93.160815469734786</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
